--- a/Train&Test sets/nLND_train.xlsx
+++ b/Train&Test sets/nLND_train.xlsx
@@ -562,61 +562,61 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.39</v>
+        <v>3.61</v>
       </c>
       <c r="I2" t="n">
-        <v>7.52</v>
+        <v>1.88</v>
       </c>
       <c r="J2" t="n">
-        <v>2.62</v>
+        <v>1.27</v>
       </c>
       <c r="K2" t="n">
-        <v>2.31</v>
+        <v>6.73</v>
       </c>
       <c r="L2" t="n">
-        <v>1.81</v>
+        <v>3.57</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
-        <v>11.5</v>
+        <v>14.8</v>
       </c>
       <c r="P2" t="n">
-        <v>39.7</v>
+        <v>47.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -625,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -642,52 +642,52 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="B3" t="n">
-        <v>40.2</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.41</v>
+        <v>4.43</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>3.74</v>
       </c>
       <c r="J3" t="n">
-        <v>0.97</v>
+        <v>1.57</v>
       </c>
       <c r="K3" t="n">
-        <v>1.01</v>
+        <v>4.02</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>3.04</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="P3" t="n">
-        <v>36.5</v>
+        <v>40.3</v>
       </c>
       <c r="Q3" t="n">
         <v>10.8</v>
@@ -702,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -722,55 +722,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>356</v>
+        <v>255</v>
       </c>
       <c r="B4" t="n">
-        <v>72.5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>6.69</v>
+        <v>6.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.91</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0.96</v>
+        <v>1.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.63</v>
+        <v>3.71</v>
       </c>
       <c r="L4" t="n">
-        <v>2.83</v>
+        <v>158.66</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>8.4</v>
       </c>
       <c r="P4" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
@@ -782,19 +782,19 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -802,70 +802,70 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="B5" t="n">
-        <v>48.5</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.73</v>
+        <v>6.62</v>
       </c>
       <c r="I5" t="n">
-        <v>2.46</v>
+        <v>4.48</v>
       </c>
       <c r="J5" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>44.73</v>
       </c>
       <c r="L5" t="n">
-        <v>4.17</v>
+        <v>3.23</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
-        <v>14.1</v>
+        <v>16.5</v>
       </c>
       <c r="P5" t="n">
-        <v>41.2</v>
+        <v>42.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.5</v>
+        <v>13.8</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -882,19 +882,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>371</v>
+        <v>177</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -903,49 +903,49 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.23</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>2.14</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9</v>
+        <v>1.65</v>
       </c>
       <c r="K6" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="Q6" t="n">
         <v>12</v>
       </c>
-      <c r="L6" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="R6" t="n">
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -962,19 +962,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>41.6</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -983,43 +983,43 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.03</v>
+        <v>7.21</v>
       </c>
       <c r="I7" t="n">
-        <v>4.04</v>
+        <v>4.28</v>
       </c>
       <c r="J7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.93</v>
+        <v>13.99</v>
       </c>
       <c r="L7" t="n">
-        <v>4.81</v>
+        <v>23.07</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="O7" t="n">
-        <v>19.8</v>
+        <v>10.9</v>
       </c>
       <c r="P7" t="n">
-        <v>45.8</v>
+        <v>39.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1042,70 +1042,70 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>71.96666999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>6.28</v>
+        <v>3.82</v>
       </c>
       <c r="I8" t="n">
-        <v>2.95</v>
+        <v>2.02</v>
       </c>
       <c r="J8" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="K8" t="n">
-        <v>6.74</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>51.76</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" t="n">
-        <v>27.2</v>
+        <v>13.47</v>
       </c>
       <c r="P8" t="n">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>12</v>
+        <v>12.9</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1122,10 +1122,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="B9" t="n">
-        <v>14.233334</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1134,61 +1134,61 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.69</v>
+        <v>4.37</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>1.69</v>
       </c>
       <c r="J9" t="n">
-        <v>1.59</v>
+        <v>2.11</v>
       </c>
       <c r="K9" t="n">
-        <v>1.81</v>
+        <v>0.918</v>
       </c>
       <c r="L9" t="n">
-        <v>28.73</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O9" t="n">
-        <v>21.2</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>38.9</v>
+        <v>40.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1214,49 +1214,49 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.24</v>
+        <v>5.78</v>
       </c>
       <c r="I10" t="n">
-        <v>6.1</v>
+        <v>4.16</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>1.12</v>
       </c>
       <c r="K10" t="n">
-        <v>0.86</v>
+        <v>4.35</v>
       </c>
       <c r="L10" t="n">
-        <v>2.52</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O10" t="n">
-        <v>8.800000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="P10" t="n">
-        <v>36.3</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>160</v>
+        <v>336</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1294,58 +1294,58 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.58</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>1.7</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>1.61</v>
+        <v>8.44</v>
       </c>
       <c r="L11" t="n">
-        <v>4.85</v>
+        <v>0.99</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O11" t="n">
-        <v>14.4</v>
+        <v>18.2</v>
       </c>
       <c r="P11" t="n">
-        <v>36.4</v>
+        <v>56</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.6</v>
+        <v>14.8</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1362,61 +1362,61 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="B12" t="n">
-        <v>49</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4.05</v>
+        <v>3.31</v>
       </c>
       <c r="I12" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
-        <v>8.68</v>
+        <v>1.46</v>
       </c>
       <c r="L12" t="n">
-        <v>1.82</v>
+        <v>2.78</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>20.9</v>
+        <v>10.1</v>
       </c>
       <c r="P12" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.3</v>
+        <v>10.8</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1442,19 +1442,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>6.466667</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1463,37 +1463,37 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.6</v>
+        <v>5.93</v>
       </c>
       <c r="I13" t="n">
-        <v>3.89</v>
+        <v>2.59</v>
       </c>
       <c r="J13" t="n">
-        <v>1.71</v>
+        <v>2.91</v>
       </c>
       <c r="K13" t="n">
-        <v>2.63</v>
+        <v>3.33</v>
       </c>
       <c r="L13" t="n">
-        <v>4.62</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="O13" t="n">
-        <v>92.40000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="P13" t="n">
-        <v>37.5</v>
+        <v>36.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -1505,16 +1505,16 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1543,34 +1543,34 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.61</v>
+        <v>6.94</v>
       </c>
       <c r="I14" t="n">
-        <v>1.88</v>
+        <v>4.09</v>
       </c>
       <c r="J14" t="n">
-        <v>1.27</v>
+        <v>1.9</v>
       </c>
       <c r="K14" t="n">
-        <v>6.73</v>
+        <v>7.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.57</v>
+        <v>2.83</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="O14" t="n">
-        <v>14.8</v>
+        <v>16.6</v>
       </c>
       <c r="P14" t="n">
-        <v>47.8</v>
+        <v>43.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1602,64 +1602,64 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>45.5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>7.21</v>
+        <v>3.96</v>
       </c>
       <c r="I15" t="n">
-        <v>4.28</v>
+        <v>3.73</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>1.11</v>
       </c>
       <c r="K15" t="n">
-        <v>13.99</v>
+        <v>101.66</v>
       </c>
       <c r="L15" t="n">
-        <v>23.07</v>
+        <v>2.24</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>23.1</v>
+        <v>45</v>
       </c>
       <c r="O15" t="n">
-        <v>10.9</v>
+        <v>19.6</v>
       </c>
       <c r="P15" t="n">
-        <v>39.9</v>
+        <v>44.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.199999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="R15" t="n">
         <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1682,70 +1682,70 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="B16" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.53</v>
+        <v>6.44</v>
       </c>
       <c r="I16" t="n">
-        <v>4.07</v>
+        <v>4.59</v>
       </c>
       <c r="J16" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="K16" t="n">
-        <v>1.88</v>
+        <v>5.73</v>
       </c>
       <c r="L16" t="n">
-        <v>4.54</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>18.3</v>
+        <v>10.5</v>
       </c>
       <c r="P16" t="n">
-        <v>44.3</v>
+        <v>53.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.4</v>
+        <v>13.2</v>
       </c>
       <c r="R16" t="n">
         <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>20.1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1783,49 +1783,49 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>9.02</v>
+        <v>6.32</v>
       </c>
       <c r="I17" t="n">
-        <v>7.33</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>2.9</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O17" t="n">
-        <v>11.8</v>
+        <v>282.39</v>
       </c>
       <c r="P17" t="n">
-        <v>30.2</v>
+        <v>32.17</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.2</v>
+        <v>15.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>317</v>
+        <v>163</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>30.6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1863,34 +1863,34 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>7.37</v>
       </c>
       <c r="I18" t="n">
-        <v>2.02</v>
+        <v>5.08</v>
       </c>
       <c r="J18" t="n">
-        <v>1.12</v>
+        <v>1.68</v>
       </c>
       <c r="K18" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="L18" t="n">
-        <v>1.1</v>
+        <v>3.03</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18" t="n">
-        <v>9.699999999999999</v>
+        <v>21.3</v>
       </c>
       <c r="P18" t="n">
-        <v>40.5</v>
+        <v>45.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.9</v>
+        <v>10.2</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1922,61 +1922,61 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>6.13</v>
+        <v>7.66</v>
       </c>
       <c r="I19" t="n">
-        <v>3.57</v>
+        <v>5.91</v>
       </c>
       <c r="J19" t="n">
-        <v>1.93</v>
+        <v>1.2</v>
       </c>
       <c r="K19" t="n">
-        <v>333.1</v>
+        <v>5.17</v>
       </c>
       <c r="L19" t="n">
-        <v>4.06</v>
+        <v>3.8</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>8.609999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="P19" t="n">
-        <v>38.37</v>
+        <v>37.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.5</v>
+        <v>11.9</v>
       </c>
       <c r="R19" t="n">
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W19" t="n">
         <v>1</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2023,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.79</v>
+        <v>6.77</v>
       </c>
       <c r="I20" t="n">
-        <v>3.98</v>
+        <v>4.23</v>
       </c>
       <c r="J20" t="n">
-        <v>2.09</v>
+        <v>1.59</v>
       </c>
       <c r="K20" t="n">
-        <v>1.68</v>
+        <v>2.54</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>2.89</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>18</v>
       </c>
       <c r="O20" t="n">
-        <v>12.9</v>
+        <v>10.7</v>
       </c>
       <c r="P20" t="n">
-        <v>46.1</v>
+        <v>33</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.2</v>
+        <v>12.2</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
@@ -2062,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="B21" t="n">
-        <v>38</v>
+        <v>5.766667</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2094,64 +2094,64 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
+        <v>76</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="L21" t="n">
         <v>61</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="K21" t="n">
-        <v>381.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>10.85</v>
-      </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O21" t="n">
-        <v>12.6</v>
+        <v>15.7</v>
       </c>
       <c r="P21" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>1</v>
@@ -2162,76 +2162,76 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B22" t="n">
-        <v>61.5</v>
+        <v>7.3</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>8.390000000000001</v>
+        <v>6.47</v>
       </c>
       <c r="I22" t="n">
-        <v>5.67</v>
+        <v>3.84</v>
       </c>
       <c r="J22" t="n">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="K22" t="n">
-        <v>2.22</v>
+        <v>104.9</v>
       </c>
       <c r="L22" t="n">
-        <v>5.22</v>
+        <v>1.18</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>19.6</v>
+        <v>8.9</v>
       </c>
       <c r="P22" t="n">
-        <v>37.4</v>
+        <v>42.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.5</v>
+        <v>13.3</v>
       </c>
       <c r="R22" t="n">
         <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
         <v>1</v>
@@ -2242,55 +2242,55 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="B23" t="n">
-        <v>12.266666</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.09</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>3.48</v>
+        <v>4.08</v>
       </c>
       <c r="J23" t="n">
-        <v>0.96</v>
+        <v>1.67</v>
       </c>
       <c r="K23" t="n">
-        <v>27.89</v>
+        <v>3.67</v>
       </c>
       <c r="L23" t="n">
-        <v>1.15</v>
+        <v>4.4</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>22.13</v>
+        <v>32</v>
       </c>
       <c r="O23" t="n">
-        <v>7.48</v>
+        <v>12.2</v>
       </c>
       <c r="P23" t="n">
-        <v>35.79</v>
+        <v>41.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.6</v>
+        <v>10.6</v>
       </c>
       <c r="R23" t="n">
         <v>1</v>
@@ -2302,19 +2302,19 @@
         <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2322,55 +2322,55 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="B24" t="n">
-        <v>110.3</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>4.94</v>
+        <v>5.29</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>3.58</v>
       </c>
       <c r="J24" t="n">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="K24" t="n">
-        <v>1.83</v>
+        <v>10.53</v>
       </c>
       <c r="L24" t="n">
-        <v>1.2</v>
+        <v>3.02</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>14</v>
+        <v>21.2</v>
       </c>
       <c r="O24" t="n">
         <v>10.8</v>
       </c>
       <c r="P24" t="n">
-        <v>39.9</v>
+        <v>42.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="R24" t="n">
         <v>1</v>
@@ -2385,16 +2385,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2402,73 +2402,73 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>218</v>
+        <v>376</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>5.63</v>
+        <v>6.65</v>
       </c>
       <c r="I25" t="n">
-        <v>3.43</v>
+        <v>5.24</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>0.85</v>
       </c>
       <c r="K25" t="n">
-        <v>3.71</v>
+        <v>8.82</v>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>3.52</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>21</v>
+        <v>55.1</v>
       </c>
       <c r="O25" t="n">
-        <v>11.8</v>
+        <v>19.44</v>
       </c>
       <c r="P25" t="n">
-        <v>38.9</v>
+        <v>26.13</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.7</v>
+        <v>15</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>7</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>1</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="B26" t="n">
-        <v>9.333333</v>
+        <v>41.6</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2494,58 +2494,58 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>10.32</v>
+        <v>7.03</v>
       </c>
       <c r="I26" t="n">
-        <v>8.1</v>
+        <v>4.04</v>
       </c>
       <c r="J26" t="n">
-        <v>1.3</v>
+        <v>2.12</v>
       </c>
       <c r="K26" t="n">
-        <v>4.64</v>
+        <v>1.93</v>
       </c>
       <c r="L26" t="n">
-        <v>2.45</v>
+        <v>4.81</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>107.2</v>
+        <v>24</v>
       </c>
       <c r="O26" t="n">
-        <v>38.4</v>
+        <v>19.8</v>
       </c>
       <c r="P26" t="n">
-        <v>33.4</v>
+        <v>45.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.1</v>
+        <v>11</v>
       </c>
       <c r="R26" t="n">
         <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2583,37 +2583,37 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7.66</v>
+        <v>5.21</v>
       </c>
       <c r="I27" t="n">
-        <v>5.08</v>
+        <v>5.41</v>
       </c>
       <c r="J27" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="K27" t="n">
-        <v>14.43</v>
+        <v>2.46</v>
       </c>
       <c r="L27" t="n">
-        <v>2.43</v>
+        <v>6.23</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>19.7</v>
+        <v>22</v>
       </c>
       <c r="O27" t="n">
-        <v>11.3</v>
+        <v>24.2</v>
       </c>
       <c r="P27" t="n">
-        <v>36.7</v>
+        <v>33.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="B28" t="n">
-        <v>5.766667</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2654,43 +2654,43 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.32</v>
+        <v>9.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.46</v>
+        <v>3.16</v>
       </c>
       <c r="J28" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="K28" t="n">
-        <v>3.11</v>
+        <v>1.07</v>
       </c>
       <c r="L28" t="n">
-        <v>61</v>
+        <v>5.62</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>11.5</v>
       </c>
       <c r="P28" t="n">
-        <v>41.6</v>
+        <v>35</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.1</v>
+        <v>12.5</v>
       </c>
       <c r="R28" t="n">
         <v>1</v>
@@ -2702,19 +2702,19 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -2722,55 +2722,55 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B29" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.15</v>
+        <v>4.51</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="K29" t="n">
-        <v>8.44</v>
+        <v>3.02</v>
       </c>
       <c r="L29" t="n">
-        <v>0.99</v>
+        <v>1.24</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="O29" t="n">
-        <v>18.2</v>
+        <v>10.9</v>
       </c>
       <c r="P29" t="n">
-        <v>56</v>
+        <v>43.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.8</v>
+        <v>13.1</v>
       </c>
       <c r="R29" t="n">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>377</v>
+        <v>126</v>
       </c>
       <c r="B30" t="n">
-        <v>7.566667</v>
+        <v>49</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2814,49 +2814,49 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>11.98</v>
+        <v>7.23</v>
       </c>
       <c r="I30" t="n">
-        <v>9.85</v>
+        <v>4.87</v>
       </c>
       <c r="J30" t="n">
-        <v>0.83</v>
+        <v>1.84</v>
       </c>
       <c r="K30" t="n">
-        <v>5.59</v>
+        <v>2.55</v>
       </c>
       <c r="L30" t="n">
-        <v>7.91</v>
+        <v>4.95</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="O30" t="n">
-        <v>43.1</v>
+        <v>10.5</v>
       </c>
       <c r="P30" t="n">
-        <v>42.2</v>
+        <v>40.5</v>
       </c>
       <c r="Q30" t="n">
         <v>13.4</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -2882,55 +2882,55 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>110.3</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.78</v>
+        <v>4.94</v>
       </c>
       <c r="I31" t="n">
-        <v>4.16</v>
+        <v>3.05</v>
       </c>
       <c r="J31" t="n">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="K31" t="n">
-        <v>4.35</v>
+        <v>1.83</v>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O31" t="n">
-        <v>17.8</v>
+        <v>10.8</v>
       </c>
       <c r="P31" t="n">
-        <v>29.3</v>
+        <v>39.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.2</v>
+        <v>12</v>
       </c>
       <c r="R31" t="n">
         <v>1</v>
@@ -2942,16 +2942,16 @@
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
         <v>2</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="B32" t="n">
-        <v>24.3</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2974,43 +2974,43 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>8.15</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>6.08</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>8.99</v>
       </c>
       <c r="L32" t="n">
-        <v>0.918</v>
+        <v>1.25</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="O32" t="n">
-        <v>11.4</v>
+        <v>9.9</v>
       </c>
       <c r="P32" t="n">
-        <v>44.5</v>
+        <v>35.8</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.5</v>
+        <v>12.7</v>
       </c>
       <c r="R32" t="n">
         <v>1</v>
@@ -3019,22 +3019,22 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3122,55 +3122,55 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="B34" t="n">
-        <v>38</v>
+        <v>41.5</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>8.44</v>
+        <v>4.62</v>
       </c>
       <c r="I34" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J34" t="n">
         <v>2.13</v>
       </c>
-      <c r="J34" t="n">
-        <v>1.03</v>
-      </c>
       <c r="K34" t="n">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>1.15</v>
+        <v>1.67</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O34" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="P34" t="n">
-        <v>43.6</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R34" t="n">
         <v>1</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="B35" t="n">
-        <v>28.6</v>
+        <v>25</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3214,49 +3214,49 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.6</v>
+        <v>4.42</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.14</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="n">
-        <v>18.29</v>
+        <v>2.79</v>
       </c>
       <c r="L35" t="n">
-        <v>1.69</v>
+        <v>5.7</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O35" t="n">
-        <v>19.4</v>
+        <v>9.9</v>
       </c>
       <c r="P35" t="n">
-        <v>46</v>
+        <v>43.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="R35" t="n">
         <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
         <v>1</v>
@@ -3265,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>2</v>
@@ -3282,70 +3282,70 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>265</v>
+        <v>388</v>
       </c>
       <c r="B36" t="n">
-        <v>3.333333</v>
+        <v>11.233334</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>4.92</v>
+        <v>7.62</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>6.45</v>
       </c>
       <c r="J36" t="n">
-        <v>1.36</v>
+        <v>0.62</v>
       </c>
       <c r="K36" t="n">
-        <v>1.64</v>
+        <v>710.8</v>
       </c>
       <c r="L36" t="n">
-        <v>8.619999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>14</v>
       </c>
       <c r="O36" t="n">
-        <v>8.9</v>
+        <v>13.01</v>
       </c>
       <c r="P36" t="n">
-        <v>42.8</v>
+        <v>30.37</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.8</v>
+        <v>12.6</v>
       </c>
       <c r="R36" t="n">
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
@@ -3362,55 +3362,55 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="B37" t="n">
-        <v>6.466667</v>
+        <v>72.5</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.93</v>
+        <v>6.69</v>
       </c>
       <c r="I37" t="n">
-        <v>2.59</v>
+        <v>2.91</v>
       </c>
       <c r="J37" t="n">
-        <v>2.91</v>
+        <v>0.96</v>
       </c>
       <c r="K37" t="n">
-        <v>3.33</v>
+        <v>6.63</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>2.83</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="O37" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="P37" t="n">
-        <v>36.4</v>
+        <v>51</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.7</v>
+        <v>10.1</v>
       </c>
       <c r="R37" t="n">
         <v>1</v>
@@ -3422,19 +3422,19 @@
         <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -3442,79 +3442,79 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="B38" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>57</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>18</v>
+      </c>
+      <c r="O38" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>71</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="L38" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>21</v>
-      </c>
-      <c r="O38" t="n">
-        <v>13</v>
-      </c>
-      <c r="P38" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>7</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -3522,52 +3522,52 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="B39" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="I39" t="n">
-        <v>5.78</v>
+        <v>2.93</v>
       </c>
       <c r="J39" t="n">
-        <v>2.03</v>
+        <v>1.24</v>
       </c>
       <c r="K39" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.46</v>
+        <v>1.32</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O39" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="P39" t="n">
-        <v>35</v>
+        <v>41.5</v>
       </c>
       <c r="Q39" t="n">
         <v>12.6</v>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -3602,70 +3602,70 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>208</v>
+        <v>358</v>
       </c>
       <c r="B40" t="n">
+        <v>12.266666</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>71</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K40" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="O40" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="P40" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>10</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>59</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K40" t="n">
-        <v>26.81</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>16</v>
-      </c>
-      <c r="O40" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2</v>
       </c>
       <c r="W40" t="n">
         <v>1</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B41" t="n">
-        <v>6.6</v>
+        <v>25.033333</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3703,40 +3703,40 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>7.66</v>
+        <v>5.95</v>
       </c>
       <c r="I41" t="n">
-        <v>5.91</v>
+        <v>4.29</v>
       </c>
       <c r="J41" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="K41" t="n">
-        <v>5.17</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>3.8</v>
+        <v>1.13</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>16</v>
+        <v>19.9</v>
       </c>
       <c r="O41" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
       <c r="P41" t="n">
-        <v>37.1</v>
+        <v>41.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="R41" t="n">
         <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -3762,55 +3762,55 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="B42" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>7.52</v>
+        <v>3.78</v>
       </c>
       <c r="I42" t="n">
-        <v>4.3</v>
+        <v>3.08</v>
       </c>
       <c r="J42" t="n">
-        <v>2.37</v>
+        <v>0.54</v>
       </c>
       <c r="K42" t="n">
-        <v>10.67</v>
+        <v>3.27</v>
       </c>
       <c r="L42" t="n">
-        <v>1.78</v>
+        <v>1.27</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O42" t="n">
-        <v>9.9</v>
+        <v>19.8</v>
       </c>
       <c r="P42" t="n">
-        <v>43.4</v>
+        <v>46.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="R42" t="n">
         <v>1</v>
@@ -3822,13 +3822,13 @@
         <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3842,19 +3842,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="B43" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -3863,34 +3863,34 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>2.57</v>
+        <v>7.11</v>
       </c>
       <c r="I43" t="n">
-        <v>1.32</v>
+        <v>4.55</v>
       </c>
       <c r="J43" t="n">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44</v>
+        <v>3.58</v>
       </c>
       <c r="L43" t="n">
-        <v>0.849</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>35</v>
+        <v>148.5</v>
       </c>
       <c r="O43" t="n">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="P43" t="n">
-        <v>30.5</v>
+        <v>38.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.9</v>
+        <v>10.9</v>
       </c>
       <c r="R43" t="n">
         <v>1</v>
@@ -3902,16 +3902,16 @@
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="n">
         <v>2</v>
@@ -3922,61 +3922,61 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="B44" t="n">
         <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.62</v>
+        <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3.63</v>
+        <v>2.13</v>
       </c>
       <c r="J44" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="K44" t="n">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="L44" t="n">
-        <v>1.24</v>
+        <v>5.78</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>12.2</v>
+        <v>77</v>
       </c>
       <c r="O44" t="n">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="P44" t="n">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="Q44" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="R44" t="n">
         <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -4002,20 +4002,20 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
         <v>66</v>
       </c>
-      <c r="B45" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>61</v>
-      </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
@@ -4023,40 +4023,40 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>5.23</v>
+        <v>5.46</v>
       </c>
       <c r="I45" t="n">
-        <v>2.36</v>
+        <v>3.12</v>
       </c>
       <c r="J45" t="n">
-        <v>2.23</v>
+        <v>1.87</v>
       </c>
       <c r="K45" t="n">
-        <v>1.58</v>
+        <v>2.71</v>
       </c>
       <c r="L45" t="n">
-        <v>7.15</v>
+        <v>1.76</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O45" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P45" t="n">
-        <v>39.2</v>
+        <v>43.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="R45" t="n">
         <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -4082,79 +4082,79 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="B46" t="n">
-        <v>93.40000000000001</v>
+        <v>4.466667</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>3.31</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.15</v>
+        <v>3.08</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9</v>
+        <v>1.46</v>
       </c>
       <c r="K46" t="n">
-        <v>1.46</v>
+        <v>5.55</v>
       </c>
       <c r="L46" t="n">
-        <v>2.78</v>
+        <v>0.53</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="O46" t="n">
-        <v>10.1</v>
+        <v>38</v>
       </c>
       <c r="P46" t="n">
-        <v>45</v>
+        <v>43.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.8</v>
+        <v>13.3</v>
       </c>
       <c r="R46" t="n">
         <v>1</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4162,55 +4162,55 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>391</v>
+        <v>87</v>
       </c>
       <c r="B47" t="n">
-        <v>21.733334</v>
+        <v>36.4</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>6.39</v>
+        <v>5.6</v>
       </c>
       <c r="I47" t="n">
-        <v>5.39</v>
+        <v>2.71</v>
       </c>
       <c r="J47" t="n">
-        <v>0.49</v>
+        <v>2.09</v>
       </c>
       <c r="K47" t="n">
-        <v>2.17</v>
+        <v>3.97</v>
       </c>
       <c r="L47" t="n">
-        <v>338</v>
+        <v>1.48</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O47" t="n">
-        <v>11.67</v>
+        <v>33.2</v>
       </c>
       <c r="P47" t="n">
-        <v>37.73</v>
+        <v>43.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>14</v>
+        <v>11.3</v>
       </c>
       <c r="R47" t="n">
         <v>1</v>
@@ -4225,16 +4225,16 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>16.333334</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -4263,40 +4263,40 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>7.56</v>
+        <v>5.19</v>
       </c>
       <c r="I48" t="n">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="J48" t="n">
-        <v>2.21</v>
+        <v>1.09</v>
       </c>
       <c r="K48" t="n">
-        <v>6.02</v>
+        <v>6.52</v>
       </c>
       <c r="L48" t="n">
-        <v>2.53</v>
+        <v>1.71</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O48" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="P48" t="n">
-        <v>41.6</v>
+        <v>49.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>11</v>
+        <v>12.7</v>
       </c>
       <c r="R48" t="n">
         <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4322,10 +4322,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="B49" t="n">
-        <v>41.5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -4334,67 +4334,67 @@
         <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>4.62</v>
+        <v>9.02</v>
       </c>
       <c r="I49" t="n">
-        <v>5.66</v>
+        <v>7.33</v>
       </c>
       <c r="J49" t="n">
-        <v>2.13</v>
+        <v>1.1</v>
       </c>
       <c r="K49" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="O49" t="n">
         <v>11.8</v>
       </c>
       <c r="P49" t="n">
-        <v>36</v>
+        <v>30.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="R49" t="n">
         <v>1</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -4402,70 +4402,70 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="B50" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>4.54</v>
+        <v>6.58</v>
       </c>
       <c r="I50" t="n">
-        <v>2.93</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="K50" t="n">
-        <v>3.2</v>
+        <v>1.61</v>
       </c>
       <c r="L50" t="n">
-        <v>1.32</v>
+        <v>4.85</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O50" t="n">
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="P50" t="n">
-        <v>41.5</v>
+        <v>36.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>12.6</v>
+        <v>10.6</v>
       </c>
       <c r="R50" t="n">
         <v>1</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -4482,55 +4482,55 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>388</v>
+        <v>259</v>
       </c>
       <c r="B51" t="n">
-        <v>11.233334</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>7.62</v>
+        <v>7.29</v>
       </c>
       <c r="I51" t="n">
-        <v>6.45</v>
+        <v>3.52</v>
       </c>
       <c r="J51" t="n">
-        <v>0.62</v>
+        <v>1.38</v>
       </c>
       <c r="K51" t="n">
-        <v>710.8</v>
+        <v>10.07</v>
       </c>
       <c r="L51" t="n">
-        <v>1.46</v>
+        <v>2.61</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O51" t="n">
-        <v>13.01</v>
+        <v>21.2</v>
       </c>
       <c r="P51" t="n">
-        <v>30.37</v>
+        <v>38.9</v>
       </c>
       <c r="Q51" t="n">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="R51" t="n">
         <v>1</v>
@@ -4542,13 +4542,13 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
         <v>1</v>
@@ -4562,19 +4562,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="B52" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -4583,49 +4583,49 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>5.66</v>
       </c>
       <c r="I52" t="n">
-        <v>2.13</v>
+        <v>3.72</v>
       </c>
       <c r="J52" t="n">
-        <v>1.86</v>
+        <v>1.28</v>
       </c>
       <c r="K52" t="n">
-        <v>2.41</v>
+        <v>1.67</v>
       </c>
       <c r="L52" t="n">
-        <v>5.78</v>
+        <v>2.85</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>77</v>
+        <v>27.4</v>
       </c>
       <c r="O52" t="n">
-        <v>3.9</v>
+        <v>16.3</v>
       </c>
       <c r="P52" t="n">
-        <v>37.6</v>
+        <v>45</v>
       </c>
       <c r="Q52" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="R52" t="n">
         <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -4642,10 +4642,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>3.333333</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -4654,64 +4654,64 @@
         <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>4.9</v>
+        <v>4.92</v>
       </c>
       <c r="I53" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="J53" t="n">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="K53" t="n">
-        <v>8.99</v>
+        <v>1.64</v>
       </c>
       <c r="L53" t="n">
-        <v>1.25</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O53" t="n">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="P53" t="n">
-        <v>35.8</v>
+        <v>42.8</v>
       </c>
       <c r="Q53" t="n">
-        <v>12.7</v>
+        <v>13.8</v>
       </c>
       <c r="R53" t="n">
         <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" t="n">
         <v>1</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>7.466667</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -4734,67 +4734,67 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>4.6</v>
+        <v>6.79</v>
       </c>
       <c r="I54" t="n">
-        <v>3.46</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>0.82</v>
+        <v>1.29</v>
       </c>
       <c r="K54" t="n">
-        <v>6.21</v>
+        <v>3.21</v>
       </c>
       <c r="L54" t="n">
-        <v>1.3</v>
+        <v>10.26</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="O54" t="n">
-        <v>32.8</v>
+        <v>6.7</v>
       </c>
       <c r="P54" t="n">
-        <v>39.3</v>
+        <v>35.6</v>
       </c>
       <c r="Q54" t="n">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="R54" t="n">
         <v>1</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W54" t="n">
         <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>230</v>
+        <v>372</v>
       </c>
       <c r="B55" t="n">
-        <v>4.466667</v>
+        <v>25.2</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -4814,43 +4814,43 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>6.59</v>
       </c>
       <c r="I55" t="n">
-        <v>3.08</v>
+        <v>5.13</v>
       </c>
       <c r="J55" t="n">
-        <v>1.46</v>
+        <v>0.88</v>
       </c>
       <c r="K55" t="n">
-        <v>5.55</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>134</v>
+        <v>18.1</v>
       </c>
       <c r="O55" t="n">
-        <v>38</v>
+        <v>13.3</v>
       </c>
       <c r="P55" t="n">
-        <v>43.4</v>
+        <v>44.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>13.3</v>
+        <v>11.4</v>
       </c>
       <c r="R55" t="n">
         <v>1</v>
@@ -4865,16 +4865,16 @@
         <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W55" t="n">
         <v>1</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="B56" t="n">
-        <v>92.40000000000001</v>
+        <v>36</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -4903,34 +4903,34 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>7.76</v>
+        <v>6.79</v>
       </c>
       <c r="I56" t="n">
-        <v>5.49</v>
+        <v>3.98</v>
       </c>
       <c r="J56" t="n">
-        <v>1.52</v>
+        <v>2.09</v>
       </c>
       <c r="K56" t="n">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="L56" t="n">
-        <v>0.915</v>
+        <v>1.41</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O56" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="P56" t="n">
-        <v>40.4</v>
+        <v>46.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>10.7</v>
+        <v>10.2</v>
       </c>
       <c r="R56" t="n">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -4962,19 +4962,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -4983,37 +4983,37 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>5.49</v>
+        <v>2.02</v>
       </c>
       <c r="J57" t="n">
-        <v>0.79</v>
+        <v>1.12</v>
       </c>
       <c r="K57" t="n">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="L57" t="n">
-        <v>2.09</v>
+        <v>1.1</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="O57" t="n">
-        <v>36.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="P57" t="n">
-        <v>31.6</v>
+        <v>40.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>10.4</v>
+        <v>11.9</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>4.5</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -5042,61 +5042,61 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B58" t="n">
-        <v>7.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>6.47</v>
+        <v>5.62</v>
       </c>
       <c r="I58" t="n">
-        <v>3.84</v>
+        <v>3.49</v>
       </c>
       <c r="J58" t="n">
-        <v>2.09</v>
+        <v>2.91</v>
       </c>
       <c r="K58" t="n">
-        <v>104.9</v>
+        <v>114.47</v>
       </c>
       <c r="L58" t="n">
-        <v>1.18</v>
+        <v>1.92</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O58" t="n">
-        <v>8.9</v>
+        <v>10.4</v>
       </c>
       <c r="P58" t="n">
-        <v>42.4</v>
+        <v>47</v>
       </c>
       <c r="Q58" t="n">
-        <v>13.3</v>
+        <v>10.7</v>
       </c>
       <c r="R58" t="n">
         <v>1</v>
       </c>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T58" t="n">
         <v>1</v>
@@ -5105,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>1</v>
@@ -5122,55 +5122,55 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="B59" t="n">
-        <v>43.5</v>
+        <v>13.533334</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>6.42</v>
+        <v>5.56</v>
       </c>
       <c r="I59" t="n">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="J59" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="K59" t="n">
-        <v>3.04</v>
+        <v>199.5</v>
       </c>
       <c r="L59" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="O59" t="n">
-        <v>12.5</v>
+        <v>22.05</v>
       </c>
       <c r="P59" t="n">
-        <v>42.6</v>
+        <v>38.46</v>
       </c>
       <c r="Q59" t="n">
-        <v>11.3</v>
+        <v>13.9</v>
       </c>
       <c r="R59" t="n">
         <v>1</v>
@@ -5185,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -5202,10 +5202,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -5214,58 +5214,58 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>3.78</v>
+        <v>6.35</v>
       </c>
       <c r="I60" t="n">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="J60" t="n">
-        <v>0.54</v>
+        <v>1.2</v>
       </c>
       <c r="K60" t="n">
-        <v>3.27</v>
+        <v>6.84</v>
       </c>
       <c r="L60" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O60" t="n">
-        <v>19.8</v>
+        <v>17.4</v>
       </c>
       <c r="P60" t="n">
-        <v>46.8</v>
+        <v>45.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>13.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R60" t="n">
         <v>1</v>
       </c>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5282,61 +5282,61 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>8.57</v>
+        <v>4.6</v>
       </c>
       <c r="I61" t="n">
-        <v>4.58</v>
+        <v>3.46</v>
       </c>
       <c r="J61" t="n">
-        <v>1.35</v>
+        <v>0.82</v>
       </c>
       <c r="K61" t="n">
-        <v>10.85</v>
+        <v>6.21</v>
       </c>
       <c r="L61" t="n">
-        <v>0.92</v>
+        <v>1.3</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O61" t="n">
-        <v>27.1</v>
+        <v>32.8</v>
       </c>
       <c r="P61" t="n">
-        <v>31</v>
+        <v>39.3</v>
       </c>
       <c r="Q61" t="n">
-        <v>12.6</v>
+        <v>14.4</v>
       </c>
       <c r="R61" t="n">
         <v>1</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T61" t="n">
         <v>1</v>
@@ -5345,13 +5345,13 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61" t="n">
         <v>2</v>
@@ -5362,58 +5362,58 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="B62" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>7.12</v>
+        <v>5.9</v>
       </c>
       <c r="I62" t="n">
-        <v>3.94</v>
+        <v>3.5</v>
       </c>
       <c r="J62" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="K62" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="L62" t="n">
-        <v>1.82</v>
+        <v>3.72</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>75.3</v>
+        <v>155</v>
       </c>
       <c r="O62" t="n">
-        <v>176.7</v>
+        <v>207.9</v>
       </c>
       <c r="P62" t="n">
-        <v>34.1</v>
+        <v>42</v>
       </c>
       <c r="Q62" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
@@ -5442,58 +5442,58 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="B63" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>9.880000000000001</v>
+        <v>7.19</v>
       </c>
       <c r="I63" t="n">
-        <v>7.75</v>
+        <v>4.58</v>
       </c>
       <c r="J63" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="K63" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="L63" t="n">
-        <v>2.14</v>
+        <v>15</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="O63" t="n">
-        <v>257.9</v>
+        <v>12.3</v>
       </c>
       <c r="P63" t="n">
-        <v>34.8</v>
+        <v>47.3</v>
       </c>
       <c r="Q63" t="n">
-        <v>14.3</v>
+        <v>10.5</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
         <v>3</v>
@@ -5502,19 +5502,19 @@
         <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -5522,55 +5522,55 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="B64" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.29</v>
+        <v>3.7</v>
       </c>
       <c r="I64" t="n">
-        <v>3.58</v>
+        <v>4.77</v>
       </c>
       <c r="J64" t="n">
-        <v>1.09</v>
+        <v>1.44</v>
       </c>
       <c r="K64" t="n">
-        <v>10.53</v>
+        <v>3.51</v>
       </c>
       <c r="L64" t="n">
-        <v>3.02</v>
+        <v>32.77</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>21.2</v>
+        <v>14.7</v>
       </c>
       <c r="O64" t="n">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="P64" t="n">
-        <v>42.8</v>
+        <v>38.6</v>
       </c>
       <c r="Q64" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="R64" t="n">
         <v>1</v>
@@ -5585,16 +5585,16 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
@@ -5602,58 +5602,58 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>389</v>
+        <v>214</v>
       </c>
       <c r="B65" t="n">
-        <v>11.5</v>
+        <v>101</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>2.28</v>
+        <v>5.44</v>
       </c>
       <c r="I65" t="n">
-        <v>1.34</v>
+        <v>3.29</v>
       </c>
       <c r="J65" t="n">
-        <v>0.58</v>
+        <v>1.52</v>
       </c>
       <c r="K65" t="n">
-        <v>280.3</v>
+        <v>2.62</v>
       </c>
       <c r="L65" t="n">
-        <v>3.29</v>
+        <v>1.56</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>50.61</v>
+        <v>39.9</v>
       </c>
       <c r="O65" t="n">
-        <v>49.94</v>
+        <v>13.4</v>
       </c>
       <c r="P65" t="n">
-        <v>34.89</v>
+        <v>42.1</v>
       </c>
       <c r="Q65" t="n">
-        <v>18.7</v>
+        <v>13.5</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S65" t="n">
         <v>2</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="B66" t="n">
-        <v>25.2</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -5694,43 +5694,43 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>6.59</v>
+        <v>4.44</v>
       </c>
       <c r="I66" t="n">
-        <v>5.13</v>
+        <v>2.57</v>
       </c>
       <c r="J66" t="n">
-        <v>0.88</v>
+        <v>1.61</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2</v>
+        <v>4.67</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>18.1</v>
+        <v>26</v>
       </c>
       <c r="O66" t="n">
-        <v>13.3</v>
+        <v>17.5</v>
       </c>
       <c r="P66" t="n">
-        <v>44.2</v>
+        <v>47</v>
       </c>
       <c r="Q66" t="n">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="R66" t="n">
         <v>1</v>
@@ -5742,16 +5742,16 @@
         <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="W66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
         <v>2</v>
@@ -5762,71 +5762,71 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="B67" t="n">
-        <v>16.333334</v>
+        <v>13.166667</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>5.19</v>
+        <v>6.23</v>
       </c>
       <c r="I67" t="n">
-        <v>3.68</v>
+        <v>4.1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="K67" t="n">
-        <v>6.52</v>
+        <v>2.4</v>
       </c>
       <c r="L67" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="O67" t="n">
-        <v>15.3</v>
+        <v>43.7</v>
       </c>
       <c r="P67" t="n">
-        <v>49.4</v>
+        <v>35.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="R67" t="n">
         <v>1</v>
       </c>
       <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
         <v>3</v>
       </c>
-      <c r="T67" t="n">
-        <v>1</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
-        <v>2.8</v>
-      </c>
       <c r="W67" t="n">
         <v>0</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -5842,19 +5842,19 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -5863,37 +5863,37 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>8.619999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="I68" t="n">
-        <v>4.83</v>
+        <v>7.04</v>
       </c>
       <c r="J68" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="K68" t="n">
-        <v>4.78</v>
+        <v>2.84</v>
       </c>
       <c r="L68" t="n">
-        <v>3.42</v>
+        <v>1.81</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="O68" t="n">
-        <v>7.4</v>
+        <v>10.3</v>
       </c>
       <c r="P68" t="n">
-        <v>36.3</v>
+        <v>43.8</v>
       </c>
       <c r="Q68" t="n">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>3</v>
@@ -5902,19 +5902,19 @@
         <v>1</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -5934,7 +5934,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -5943,40 +5943,40 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>7.29</v>
+        <v>4.62</v>
       </c>
       <c r="I69" t="n">
-        <v>3.52</v>
+        <v>5.78</v>
       </c>
       <c r="J69" t="n">
-        <v>1.38</v>
+        <v>2.03</v>
       </c>
       <c r="K69" t="n">
-        <v>10.07</v>
+        <v>1.78</v>
       </c>
       <c r="L69" t="n">
-        <v>2.61</v>
+        <v>3.46</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O69" t="n">
-        <v>21.2</v>
+        <v>13</v>
       </c>
       <c r="P69" t="n">
-        <v>38.9</v>
+        <v>35</v>
       </c>
       <c r="Q69" t="n">
-        <v>11.5</v>
+        <v>12.6</v>
       </c>
       <c r="R69" t="n">
         <v>1</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T69" t="n">
         <v>1</v>
@@ -5991,10 +5991,10 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6002,61 +6002,61 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>3.12</v>
+        <v>6.13</v>
       </c>
       <c r="I70" t="n">
-        <v>4.85</v>
+        <v>3.57</v>
       </c>
       <c r="J70" t="n">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="K70" t="n">
-        <v>1.13</v>
+        <v>333.1</v>
       </c>
       <c r="L70" t="n">
-        <v>3.35</v>
+        <v>4.06</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>7</v>
+        <v>16.8</v>
       </c>
       <c r="O70" t="n">
-        <v>8.1</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="P70" t="n">
-        <v>36</v>
+        <v>38.37</v>
       </c>
       <c r="Q70" t="n">
-        <v>12.3</v>
+        <v>14.5</v>
       </c>
       <c r="R70" t="n">
         <v>1</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
         <v>1</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W70" t="n">
         <v>1</v>
@@ -6082,79 +6082,79 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B71" t="n">
-        <v>45.5</v>
+        <v>61.5</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>4.48</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>4.67</v>
+        <v>5.67</v>
       </c>
       <c r="J71" t="n">
-        <v>1.31</v>
+        <v>1.85</v>
       </c>
       <c r="K71" t="n">
-        <v>1.06</v>
+        <v>2.22</v>
       </c>
       <c r="L71" t="n">
-        <v>4.82</v>
+        <v>5.22</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="O71" t="n">
-        <v>13.3</v>
+        <v>19.6</v>
       </c>
       <c r="P71" t="n">
-        <v>43.3</v>
+        <v>37.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>13.1</v>
+        <v>16.5</v>
       </c>
       <c r="R71" t="n">
         <v>1</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
         <v>1</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
@@ -6162,61 +6162,61 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>5.69</v>
+        <v>5.92</v>
       </c>
       <c r="I72" t="n">
-        <v>3.35</v>
+        <v>3.82</v>
       </c>
       <c r="J72" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="K72" t="n">
-        <v>4.69</v>
+        <v>4.2</v>
       </c>
       <c r="L72" t="n">
-        <v>0.855</v>
+        <v>2.63</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="O72" t="n">
-        <v>13.3</v>
+        <v>20.9</v>
       </c>
       <c r="P72" t="n">
-        <v>40.1</v>
+        <v>32.6</v>
       </c>
       <c r="Q72" t="n">
-        <v>10.4</v>
+        <v>13.9</v>
       </c>
       <c r="R72" t="n">
         <v>1</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T72" t="n">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
@@ -6242,79 +6242,79 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="B73" t="n">
-        <v>20.1</v>
+        <v>6</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6.32</v>
+        <v>8.57</v>
       </c>
       <c r="I73" t="n">
-        <v>4.9</v>
+        <v>4.58</v>
       </c>
       <c r="J73" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="K73" t="n">
-        <v>2.05</v>
+        <v>10.85</v>
       </c>
       <c r="L73" t="n">
-        <v>2.9</v>
+        <v>0.92</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="O73" t="n">
-        <v>282.39</v>
+        <v>27.1</v>
       </c>
       <c r="P73" t="n">
-        <v>32.17</v>
+        <v>31</v>
       </c>
       <c r="Q73" t="n">
-        <v>15.1</v>
+        <v>12.6</v>
       </c>
       <c r="R73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
         <v>3</v>
       </c>
-      <c r="T73" t="n">
-        <v>1</v>
-      </c>
-      <c r="U73" t="n">
-        <v>1</v>
-      </c>
-      <c r="V73" t="n">
-        <v>3.5</v>
-      </c>
       <c r="W73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z73" t="n">
         <v>0</v>
@@ -6322,13 +6322,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -6340,37 +6340,37 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>5.66</v>
+        <v>4.28</v>
       </c>
       <c r="I74" t="n">
-        <v>3.72</v>
+        <v>2.47</v>
       </c>
       <c r="J74" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="K74" t="n">
-        <v>1.67</v>
+        <v>4.43</v>
       </c>
       <c r="L74" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>27.4</v>
+        <v>26</v>
       </c>
       <c r="O74" t="n">
-        <v>16.3</v>
+        <v>7.4</v>
       </c>
       <c r="P74" t="n">
-        <v>45</v>
+        <v>35.4</v>
       </c>
       <c r="Q74" t="n">
-        <v>10.8</v>
+        <v>14.3</v>
       </c>
       <c r="R74" t="n">
         <v>1</v>
@@ -6379,22 +6379,22 @@
         <v>2</v>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>7</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z74" t="n">
         <v>0</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B75" t="n">
-        <v>28</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -6414,49 +6414,49 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>4.28</v>
+        <v>7.76</v>
       </c>
       <c r="I75" t="n">
-        <v>2.47</v>
+        <v>5.49</v>
       </c>
       <c r="J75" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="K75" t="n">
-        <v>4.43</v>
+        <v>2.58</v>
       </c>
       <c r="L75" t="n">
-        <v>2.92</v>
+        <v>0.915</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O75" t="n">
-        <v>7.4</v>
+        <v>13.2</v>
       </c>
       <c r="P75" t="n">
-        <v>35.4</v>
+        <v>40.4</v>
       </c>
       <c r="Q75" t="n">
-        <v>14.3</v>
+        <v>10.7</v>
       </c>
       <c r="R75" t="n">
         <v>1</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
@@ -6465,16 +6465,16 @@
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z75" t="n">
         <v>0</v>
@@ -6482,55 +6482,55 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="B76" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>61</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
         <v>12</v>
       </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>60</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>18</v>
-      </c>
       <c r="O76" t="n">
-        <v>10.7</v>
+        <v>24</v>
       </c>
       <c r="P76" t="n">
-        <v>33</v>
+        <v>39.2</v>
       </c>
       <c r="Q76" t="n">
-        <v>12.2</v>
+        <v>9.5</v>
       </c>
       <c r="R76" t="n">
         <v>1</v>
@@ -6542,19 +6542,19 @@
         <v>1</v>
       </c>
       <c r="U76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
         <v>0</v>
@@ -6562,19 +6562,19 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>243</v>
+        <v>342</v>
       </c>
       <c r="B77" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -6583,40 +6583,40 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>3.7</v>
+        <v>8.44</v>
       </c>
       <c r="I77" t="n">
-        <v>4.77</v>
+        <v>2.13</v>
       </c>
       <c r="J77" t="n">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="K77" t="n">
-        <v>3.51</v>
+        <v>1.76</v>
       </c>
       <c r="L77" t="n">
-        <v>32.77</v>
+        <v>1.15</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>14.7</v>
+        <v>23</v>
       </c>
       <c r="O77" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="P77" t="n">
-        <v>38.6</v>
+        <v>43.6</v>
       </c>
       <c r="Q77" t="n">
-        <v>11.8</v>
+        <v>11</v>
       </c>
       <c r="R77" t="n">
         <v>1</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T77" t="n">
         <v>1</v>
@@ -6625,16 +6625,16 @@
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z77" t="n">
         <v>0</v>
@@ -6642,58 +6642,58 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>298</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>6.35</v>
+        <v>12.6</v>
       </c>
       <c r="I78" t="n">
-        <v>3.25</v>
+        <v>3.89</v>
       </c>
       <c r="J78" t="n">
-        <v>1.2</v>
+        <v>1.71</v>
       </c>
       <c r="K78" t="n">
-        <v>6.84</v>
+        <v>2.63</v>
       </c>
       <c r="L78" t="n">
-        <v>1.28</v>
+        <v>4.62</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O78" t="n">
-        <v>17.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="P78" t="n">
-        <v>45.2</v>
+        <v>37.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="R78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
         <v>2</v>
@@ -6702,16 +6702,16 @@
         <v>1</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" t="n">
         <v>2</v>
@@ -6722,10 +6722,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="B79" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -6734,49 +6734,49 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>6.62</v>
+        <v>10.86</v>
       </c>
       <c r="I79" t="n">
-        <v>4.48</v>
+        <v>7.47</v>
       </c>
       <c r="J79" t="n">
-        <v>1.43</v>
+        <v>2.47</v>
       </c>
       <c r="K79" t="n">
-        <v>44.73</v>
+        <v>1.94</v>
       </c>
       <c r="L79" t="n">
-        <v>3.23</v>
+        <v>1.47</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O79" t="n">
-        <v>16.5</v>
+        <v>21.6</v>
       </c>
       <c r="P79" t="n">
-        <v>42.3</v>
+        <v>46</v>
       </c>
       <c r="Q79" t="n">
-        <v>13.8</v>
+        <v>10.6</v>
       </c>
       <c r="R79" t="n">
         <v>1</v>
       </c>
       <c r="S79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T79" t="n">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -6802,19 +6802,19 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B80" t="n">
-        <v>25.033333</v>
+        <v>9.333333</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -6823,34 +6823,34 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>5.95</v>
+        <v>10.32</v>
       </c>
       <c r="I80" t="n">
-        <v>4.29</v>
+        <v>8.1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="K80" t="n">
-        <v>4.2</v>
+        <v>4.64</v>
       </c>
       <c r="L80" t="n">
-        <v>1.13</v>
+        <v>2.45</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>19.9</v>
+        <v>107.2</v>
       </c>
       <c r="O80" t="n">
-        <v>15</v>
+        <v>38.4</v>
       </c>
       <c r="P80" t="n">
-        <v>41.8</v>
+        <v>33.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>12.2</v>
+        <v>14.1</v>
       </c>
       <c r="R80" t="n">
         <v>1</v>
@@ -6859,22 +6859,22 @@
         <v>2</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80" t="n">
         <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -6882,79 +6882,79 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>5.3</v>
+        <v>5.69</v>
       </c>
       <c r="I81" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J81" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="K81" t="n">
-        <v>4.29</v>
+        <v>4.69</v>
       </c>
       <c r="L81" t="n">
-        <v>1.7</v>
+        <v>0.855</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>33.4</v>
+        <v>13.3</v>
       </c>
       <c r="P81" t="n">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="Q81" t="n">
-        <v>13.2</v>
+        <v>10.4</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S81" t="n">
         <v>2</v>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
         <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
         <v>0</v>
@@ -6962,19 +6962,19 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="B82" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -6983,52 +6983,52 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>5.92</v>
+        <v>5.46</v>
       </c>
       <c r="I82" t="n">
-        <v>3.82</v>
+        <v>2.98</v>
       </c>
       <c r="J82" t="n">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="K82" t="n">
-        <v>4.2</v>
+        <v>381.9</v>
       </c>
       <c r="L82" t="n">
-        <v>2.63</v>
+        <v>10.85</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="O82" t="n">
-        <v>20.9</v>
+        <v>12.6</v>
       </c>
       <c r="P82" t="n">
-        <v>32.6</v>
+        <v>41.9</v>
       </c>
       <c r="Q82" t="n">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="R82" t="n">
         <v>1</v>
       </c>
       <c r="S82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T82" t="n">
         <v>1</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -7042,55 +7042,55 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B83" t="n">
-        <v>14</v>
+        <v>1.933333</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>8.130000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="I83" t="n">
-        <v>4.08</v>
+        <v>7.79</v>
       </c>
       <c r="J83" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="K83" t="n">
-        <v>3.67</v>
+        <v>3.44</v>
       </c>
       <c r="L83" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O83" t="n">
         <v>12.2</v>
       </c>
       <c r="P83" t="n">
-        <v>41.5</v>
+        <v>44.6</v>
       </c>
       <c r="Q83" t="n">
-        <v>10.6</v>
+        <v>13.8</v>
       </c>
       <c r="R83" t="n">
         <v>1</v>
@@ -7102,19 +7102,19 @@
         <v>1</v>
       </c>
       <c r="U83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
         <v>3</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z83" t="n">
         <v>0</v>
@@ -7122,19 +7122,19 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="B84" t="n">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -7143,34 +7143,34 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>3.97</v>
+        <v>5.6</v>
       </c>
       <c r="I84" t="n">
-        <v>5.77</v>
+        <v>3.75</v>
       </c>
       <c r="J84" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="K84" t="n">
-        <v>9.720000000000001</v>
+        <v>18.29</v>
       </c>
       <c r="L84" t="n">
-        <v>3.05</v>
+        <v>1.69</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O84" t="n">
-        <v>16</v>
+        <v>19.4</v>
       </c>
       <c r="P84" t="n">
-        <v>43.5</v>
+        <v>46</v>
       </c>
       <c r="Q84" t="n">
-        <v>11.6</v>
+        <v>10.2</v>
       </c>
       <c r="R84" t="n">
         <v>1</v>
@@ -7185,16 +7185,16 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z84" t="n">
         <v>0</v>
@@ -7202,55 +7202,55 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="B85" t="n">
-        <v>17</v>
+        <v>43.5</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>4.44</v>
+        <v>6.42</v>
       </c>
       <c r="I85" t="n">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="J85" t="n">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="K85" t="n">
-        <v>1.39</v>
+        <v>3.04</v>
       </c>
       <c r="L85" t="n">
-        <v>4.67</v>
+        <v>0.49</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O85" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="P85" t="n">
-        <v>47</v>
+        <v>42.6</v>
       </c>
       <c r="Q85" t="n">
-        <v>12.5</v>
+        <v>11.3</v>
       </c>
       <c r="R85" t="n">
         <v>1</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W85" t="n">
         <v>0</v>
@@ -7282,10 +7282,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="B86" t="n">
-        <v>28</v>
+        <v>45.5</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -7303,34 +7303,34 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>10.86</v>
+        <v>6.02</v>
       </c>
       <c r="I86" t="n">
-        <v>7.47</v>
+        <v>3.24</v>
       </c>
       <c r="J86" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="K86" t="n">
-        <v>1.94</v>
+        <v>1.17</v>
       </c>
       <c r="L86" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O86" t="n">
-        <v>21.6</v>
+        <v>8.9</v>
       </c>
       <c r="P86" t="n">
-        <v>46</v>
+        <v>40.2</v>
       </c>
       <c r="Q86" t="n">
-        <v>10.6</v>
+        <v>13.3</v>
       </c>
       <c r="R86" t="n">
         <v>1</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z86" t="n">
         <v>0</v>
@@ -7362,73 +7362,73 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B87" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>7.19</v>
+        <v>4.95</v>
       </c>
       <c r="I87" t="n">
-        <v>4.58</v>
+        <v>2.91</v>
       </c>
       <c r="J87" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="K87" t="n">
-        <v>2.25</v>
+        <v>26.81</v>
       </c>
       <c r="L87" t="n">
-        <v>15</v>
+        <v>2.42</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="O87" t="n">
-        <v>12.3</v>
+        <v>6.1</v>
       </c>
       <c r="P87" t="n">
-        <v>47.3</v>
+        <v>35.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>10.5</v>
+        <v>14.8</v>
       </c>
       <c r="R87" t="n">
         <v>1</v>
       </c>
       <c r="S87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T87" t="n">
         <v>1</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" t="n">
         <v>2</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
@@ -7442,61 +7442,61 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>10.866667</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>5.23</v>
+        <v>4.77</v>
       </c>
       <c r="I88" t="n">
-        <v>2.14</v>
+        <v>3.4</v>
       </c>
       <c r="J88" t="n">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>15.04</v>
+        <v>2.9</v>
       </c>
       <c r="L88" t="n">
-        <v>3.08</v>
+        <v>3.52</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O88" t="n">
-        <v>11.5</v>
+        <v>7.7</v>
       </c>
       <c r="P88" t="n">
-        <v>37.6</v>
+        <v>34.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>12</v>
+        <v>14.8</v>
       </c>
       <c r="R88" t="n">
         <v>1</v>
       </c>
       <c r="S88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T88" t="n">
         <v>1</v>
@@ -7505,16 +7505,16 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z88" t="n">
         <v>0</v>
@@ -7522,19 +7522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B89" t="n">
-        <v>30.6</v>
+        <v>40</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -7543,34 +7543,34 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>7.37</v>
+        <v>4.02</v>
       </c>
       <c r="I89" t="n">
-        <v>5.08</v>
+        <v>2.08</v>
       </c>
       <c r="J89" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="K89" t="n">
-        <v>1.94</v>
+        <v>2.27</v>
       </c>
       <c r="L89" t="n">
-        <v>3.03</v>
+        <v>1.38</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O89" t="n">
-        <v>21.3</v>
+        <v>11.7</v>
       </c>
       <c r="P89" t="n">
-        <v>45.7</v>
+        <v>36.6</v>
       </c>
       <c r="Q89" t="n">
-        <v>10.2</v>
+        <v>14.5</v>
       </c>
       <c r="R89" t="n">
         <v>1</v>
@@ -7582,19 +7582,19 @@
         <v>1</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V89" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
         <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z89" t="n">
         <v>0</v>
@@ -7602,19 +7602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>105</v>
+        <v>382</v>
       </c>
       <c r="B90" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -7623,34 +7623,34 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>5.21</v>
+        <v>6.8</v>
       </c>
       <c r="I90" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="J90" t="n">
-        <v>1.94</v>
+        <v>0.79</v>
       </c>
       <c r="K90" t="n">
-        <v>2.46</v>
+        <v>1.44</v>
       </c>
       <c r="L90" t="n">
-        <v>6.23</v>
+        <v>2.09</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="O90" t="n">
-        <v>24.2</v>
+        <v>36.4</v>
       </c>
       <c r="P90" t="n">
-        <v>33.7</v>
+        <v>31.6</v>
       </c>
       <c r="Q90" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="R90" t="n">
         <v>2</v>
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="V90" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z90" t="n">
         <v>0</v>
@@ -7682,73 +7682,73 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="B91" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>4.75</v>
+        <v>3.12</v>
       </c>
       <c r="I91" t="n">
-        <v>2.93</v>
+        <v>4.85</v>
       </c>
       <c r="J91" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="K91" t="n">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="L91" t="n">
-        <v>1.3</v>
+        <v>3.35</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="O91" t="n">
-        <v>12.8</v>
+        <v>8.1</v>
       </c>
       <c r="P91" t="n">
-        <v>41.4</v>
+        <v>36</v>
       </c>
       <c r="Q91" t="n">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="R91" t="n">
         <v>1</v>
       </c>
       <c r="S91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T91" t="n">
         <v>1</v>
       </c>
       <c r="U91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X91" t="n">
         <v>0</v>
@@ -7762,10 +7762,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -7774,49 +7774,49 @@
         <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>5.9</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>3.5</v>
+        <v>7.75</v>
       </c>
       <c r="J92" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K92" t="n">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="L92" t="n">
-        <v>3.72</v>
+        <v>2.14</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="O92" t="n">
-        <v>207.9</v>
+        <v>257.9</v>
       </c>
       <c r="P92" t="n">
-        <v>42</v>
+        <v>34.8</v>
       </c>
       <c r="Q92" t="n">
-        <v>13.3</v>
+        <v>14.3</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T92" t="n">
         <v>1</v>
@@ -7825,16 +7825,16 @@
         <v>1</v>
       </c>
       <c r="V92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z92" t="n">
         <v>0</v>
@@ -7842,19 +7842,19 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B93" t="n">
-        <v>71.96666999999999</v>
+        <v>12.133333</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>3.82</v>
+        <v>3.65</v>
       </c>
       <c r="I93" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="J93" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="K93" t="n">
-        <v>2.25</v>
+        <v>4.84</v>
       </c>
       <c r="L93" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O93" t="n">
-        <v>13.47</v>
+        <v>56.2</v>
       </c>
       <c r="P93" t="n">
-        <v>40.9</v>
+        <v>34.9</v>
       </c>
       <c r="Q93" t="n">
-        <v>12.9</v>
+        <v>14.3</v>
       </c>
       <c r="R93" t="n">
         <v>1</v>
       </c>
       <c r="S93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T93" t="n">
         <v>1</v>
       </c>
       <c r="U93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93" t="n">
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z93" t="n">
         <v>0</v>
@@ -7922,10 +7922,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="B94" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -7934,43 +7934,43 @@
         <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>6.44</v>
+        <v>4.75</v>
       </c>
       <c r="I94" t="n">
-        <v>4.59</v>
+        <v>2.93</v>
       </c>
       <c r="J94" t="n">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="K94" t="n">
-        <v>5.73</v>
+        <v>1.55</v>
       </c>
       <c r="L94" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="O94" t="n">
-        <v>10.5</v>
+        <v>12.8</v>
       </c>
       <c r="P94" t="n">
-        <v>53.8</v>
+        <v>41.4</v>
       </c>
       <c r="Q94" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="R94" t="n">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="V94" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -8002,19 +8002,19 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -8023,49 +8023,49 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>6.2</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I95" t="n">
-        <v>4.51</v>
+        <v>4.83</v>
       </c>
       <c r="J95" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="K95" t="n">
-        <v>3.02</v>
+        <v>4.78</v>
       </c>
       <c r="L95" t="n">
-        <v>1.24</v>
+        <v>3.42</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>16.5</v>
+        <v>67</v>
       </c>
       <c r="O95" t="n">
-        <v>10.9</v>
+        <v>7.4</v>
       </c>
       <c r="P95" t="n">
-        <v>43.7</v>
+        <v>36.3</v>
       </c>
       <c r="Q95" t="n">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="R95" t="n">
         <v>1</v>
       </c>
       <c r="S95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T95" t="n">
         <v>1</v>
       </c>
       <c r="U95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -8082,76 +8082,76 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="B96" t="n">
-        <v>15.9</v>
+        <v>24.3</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>6.65</v>
+        <v>8.15</v>
       </c>
       <c r="I96" t="n">
-        <v>5.24</v>
+        <v>6.08</v>
       </c>
       <c r="J96" t="n">
-        <v>0.85</v>
+        <v>1.53</v>
       </c>
       <c r="K96" t="n">
-        <v>8.82</v>
+        <v>4.1</v>
       </c>
       <c r="L96" t="n">
-        <v>3.52</v>
+        <v>0.918</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>55.1</v>
+        <v>22</v>
       </c>
       <c r="O96" t="n">
-        <v>19.44</v>
+        <v>11.4</v>
       </c>
       <c r="P96" t="n">
-        <v>26.13</v>
+        <v>44.5</v>
       </c>
       <c r="Q96" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T96" t="n">
         <v>1</v>
       </c>
       <c r="U96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y96" t="n">
         <v>2</v>
@@ -8162,55 +8162,55 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="B97" t="n">
-        <v>45.5</v>
+        <v>14.233334</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>3.96</v>
+        <v>5.69</v>
       </c>
       <c r="I97" t="n">
-        <v>3.73</v>
+        <v>3.55</v>
       </c>
       <c r="J97" t="n">
-        <v>1.11</v>
+        <v>1.59</v>
       </c>
       <c r="K97" t="n">
-        <v>101.66</v>
+        <v>1.81</v>
       </c>
       <c r="L97" t="n">
-        <v>2.24</v>
+        <v>28.73</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="O97" t="n">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
       <c r="P97" t="n">
-        <v>44.5</v>
+        <v>38.9</v>
       </c>
       <c r="Q97" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="R97" t="n">
         <v>1</v>
@@ -8222,16 +8222,16 @@
         <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V97" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
         <v>2</v>
@@ -8242,58 +8242,58 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>201</v>
+        <v>389</v>
       </c>
       <c r="B98" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
-        <v>4.43</v>
+        <v>2.28</v>
       </c>
       <c r="I98" t="n">
-        <v>3.74</v>
+        <v>1.34</v>
       </c>
       <c r="J98" t="n">
-        <v>1.57</v>
+        <v>0.58</v>
       </c>
       <c r="K98" t="n">
-        <v>4.02</v>
+        <v>280.3</v>
       </c>
       <c r="L98" t="n">
-        <v>3.04</v>
+        <v>3.29</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>6</v>
+        <v>50.61</v>
       </c>
       <c r="O98" t="n">
-        <v>8.9</v>
+        <v>49.94</v>
       </c>
       <c r="P98" t="n">
-        <v>40.3</v>
+        <v>34.89</v>
       </c>
       <c r="Q98" t="n">
-        <v>10.8</v>
+        <v>18.7</v>
       </c>
       <c r="R98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S98" t="n">
         <v>2</v>
@@ -8305,16 +8305,16 @@
         <v>1</v>
       </c>
       <c r="V98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X98" t="n">
         <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z98" t="n">
         <v>0</v>
@@ -8322,61 +8322,61 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>151</v>
+        <v>391</v>
       </c>
       <c r="B99" t="n">
-        <v>1.933333</v>
+        <v>21.733334</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>10.35</v>
+        <v>6.39</v>
       </c>
       <c r="I99" t="n">
-        <v>7.79</v>
+        <v>5.39</v>
       </c>
       <c r="J99" t="n">
-        <v>1.75</v>
+        <v>0.49</v>
       </c>
       <c r="K99" t="n">
-        <v>3.44</v>
+        <v>2.17</v>
       </c>
       <c r="L99" t="n">
-        <v>3.1</v>
+        <v>338</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="O99" t="n">
-        <v>12.2</v>
+        <v>11.67</v>
       </c>
       <c r="P99" t="n">
-        <v>44.6</v>
+        <v>37.73</v>
       </c>
       <c r="Q99" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="R99" t="n">
         <v>1</v>
       </c>
       <c r="S99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T99" t="n">
         <v>1</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="W99" t="n">
         <v>1</v>
@@ -8402,61 +8402,61 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>55</v>
+        <v>377</v>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>7.566667</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>6.7</v>
+        <v>11.98</v>
       </c>
       <c r="I100" t="n">
-        <v>3.78</v>
+        <v>9.85</v>
       </c>
       <c r="J100" t="n">
-        <v>2.33</v>
+        <v>0.83</v>
       </c>
       <c r="K100" t="n">
-        <v>2.8</v>
+        <v>5.59</v>
       </c>
       <c r="L100" t="n">
-        <v>4.54</v>
+        <v>7.91</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O100" t="n">
-        <v>11.8</v>
+        <v>43.1</v>
       </c>
       <c r="P100" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="Q100" t="n">
-        <v>11.2</v>
+        <v>13.4</v>
       </c>
       <c r="R100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T100" t="n">
         <v>1</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X100" t="n">
         <v>0</v>
@@ -8482,55 +8482,55 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="B101" t="n">
-        <v>10.866667</v>
+        <v>6</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>4.77</v>
+        <v>5.63</v>
       </c>
       <c r="I101" t="n">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K101" t="n">
-        <v>2.9</v>
+        <v>3.71</v>
       </c>
       <c r="L101" t="n">
-        <v>3.52</v>
+        <v>2.37</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="O101" t="n">
-        <v>7.7</v>
+        <v>11.8</v>
       </c>
       <c r="P101" t="n">
-        <v>34.5</v>
+        <v>38.9</v>
       </c>
       <c r="Q101" t="n">
-        <v>14.8</v>
+        <v>11.7</v>
       </c>
       <c r="R101" t="n">
         <v>1</v>
@@ -8545,13 +8545,13 @@
         <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y101" t="n">
         <v>2</v>
@@ -8562,55 +8562,55 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6.1</v>
+        <v>7.66</v>
       </c>
       <c r="I102" t="n">
-        <v>3.9</v>
+        <v>5.08</v>
       </c>
       <c r="J102" t="n">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="K102" t="n">
-        <v>3.71</v>
+        <v>14.43</v>
       </c>
       <c r="L102" t="n">
-        <v>158.66</v>
+        <v>2.43</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>26</v>
+        <v>19.7</v>
       </c>
       <c r="O102" t="n">
-        <v>8.4</v>
+        <v>11.3</v>
       </c>
       <c r="P102" t="n">
-        <v>36</v>
+        <v>36.7</v>
       </c>
       <c r="Q102" t="n">
-        <v>11.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R102" t="n">
         <v>1</v>
@@ -8625,16 +8625,16 @@
         <v>1</v>
       </c>
       <c r="V102" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z102" t="n">
         <v>0</v>
@@ -8642,55 +8642,55 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B103" t="n">
-        <v>7.466667</v>
+        <v>45.5</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>6.79</v>
+        <v>4.48</v>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="J103" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="K103" t="n">
-        <v>3.21</v>
+        <v>1.06</v>
       </c>
       <c r="L103" t="n">
-        <v>10.26</v>
+        <v>4.82</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O103" t="n">
-        <v>6.7</v>
+        <v>13.3</v>
       </c>
       <c r="P103" t="n">
-        <v>35.6</v>
+        <v>43.3</v>
       </c>
       <c r="Q103" t="n">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="R103" t="n">
         <v>1</v>
@@ -8699,13 +8699,13 @@
         <v>2</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W103" t="n">
         <v>1</v>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="Y103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z103" t="n">
         <v>0</v>
@@ -8722,19 +8722,19 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -8743,52 +8743,52 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>9.67</v>
+        <v>3.97</v>
       </c>
       <c r="I104" t="n">
-        <v>7.04</v>
+        <v>5.77</v>
       </c>
       <c r="J104" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="K104" t="n">
-        <v>2.84</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="L104" t="n">
-        <v>1.81</v>
+        <v>3.05</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O104" t="n">
-        <v>10.3</v>
+        <v>16</v>
       </c>
       <c r="P104" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T104" t="n">
         <v>1</v>
       </c>
       <c r="U104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V104" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X104" t="n">
         <v>0</v>
@@ -8802,10 +8802,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="B105" t="n">
-        <v>26</v>
+        <v>11.833333</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -8817,40 +8817,40 @@
         <v>59</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>6.94</v>
+        <v>10.3</v>
       </c>
       <c r="I105" t="n">
-        <v>4.09</v>
+        <v>8.16</v>
       </c>
       <c r="J105" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="K105" t="n">
-        <v>7.05</v>
+        <v>1404</v>
       </c>
       <c r="L105" t="n">
-        <v>2.83</v>
+        <v>2.12</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O105" t="n">
-        <v>16.6</v>
+        <v>12.11</v>
       </c>
       <c r="P105" t="n">
-        <v>43.4</v>
+        <v>36.4</v>
       </c>
       <c r="Q105" t="n">
-        <v>10.6</v>
+        <v>14.3</v>
       </c>
       <c r="R105" t="n">
         <v>1</v>
@@ -8865,16 +8865,16 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z105" t="n">
         <v>0</v>
@@ -8882,19 +8882,19 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="B106" t="n">
-        <v>11.833333</v>
+        <v>11</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -8903,37 +8903,37 @@
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>10.3</v>
+        <v>7.12</v>
       </c>
       <c r="I106" t="n">
-        <v>8.16</v>
+        <v>3.94</v>
       </c>
       <c r="J106" t="n">
-        <v>1.42</v>
+        <v>2.32</v>
       </c>
       <c r="K106" t="n">
-        <v>1404</v>
+        <v>2.35</v>
       </c>
       <c r="L106" t="n">
-        <v>2.12</v>
+        <v>1.82</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="n">
-        <v>21</v>
+        <v>75.3</v>
       </c>
       <c r="O106" t="n">
-        <v>12.11</v>
+        <v>176.7</v>
       </c>
       <c r="P106" t="n">
-        <v>36.4</v>
+        <v>34.1</v>
       </c>
       <c r="Q106" t="n">
-        <v>14.3</v>
+        <v>11.1</v>
       </c>
       <c r="R106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S106" t="n">
         <v>2</v>
@@ -8942,19 +8942,19 @@
         <v>1</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V106" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z106" t="n">
         <v>0</v>
@@ -8962,10 +8962,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>367</v>
+        <v>248</v>
       </c>
       <c r="B107" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -8983,49 +8983,49 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>4.68</v>
+        <v>6.28</v>
       </c>
       <c r="I107" t="n">
-        <v>2.51</v>
+        <v>2.95</v>
       </c>
       <c r="J107" t="n">
-        <v>0.91</v>
+        <v>1.42</v>
       </c>
       <c r="K107" t="n">
-        <v>7.81</v>
+        <v>6.74</v>
       </c>
       <c r="L107" t="n">
-        <v>2.97</v>
+        <v>51.76</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O107" t="n">
-        <v>12.3</v>
+        <v>27.2</v>
       </c>
       <c r="P107" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="Q107" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="R107" t="n">
         <v>1</v>
       </c>
       <c r="S107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
@@ -9042,19 +9042,19 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B108" t="n">
-        <v>36.4</v>
+        <v>64</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -9063,40 +9063,40 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>5.6</v>
+        <v>7.52</v>
       </c>
       <c r="I108" t="n">
-        <v>2.71</v>
+        <v>4.3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.09</v>
+        <v>2.37</v>
       </c>
       <c r="K108" t="n">
-        <v>3.97</v>
+        <v>10.67</v>
       </c>
       <c r="L108" t="n">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O108" t="n">
-        <v>33.2</v>
+        <v>9.9</v>
       </c>
       <c r="P108" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="Q108" t="n">
-        <v>11.3</v>
+        <v>13.5</v>
       </c>
       <c r="R108" t="n">
         <v>1</v>
       </c>
       <c r="S108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T108" t="n">
         <v>1</v>
@@ -9105,16 +9105,16 @@
         <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z108" t="n">
         <v>0</v>
@@ -9122,19 +9122,19 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="B109" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -9143,34 +9143,34 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="I109" t="n">
-        <v>3.16</v>
+        <v>3.78</v>
       </c>
       <c r="J109" t="n">
-        <v>1.64</v>
+        <v>2.33</v>
       </c>
       <c r="K109" t="n">
-        <v>1.07</v>
+        <v>2.8</v>
       </c>
       <c r="L109" t="n">
-        <v>5.62</v>
+        <v>4.54</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O109" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="P109" t="n">
-        <v>35</v>
+        <v>39.2</v>
       </c>
       <c r="Q109" t="n">
-        <v>12.5</v>
+        <v>11.2</v>
       </c>
       <c r="R109" t="n">
         <v>1</v>
@@ -9182,10 +9182,10 @@
         <v>1</v>
       </c>
       <c r="U109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
